--- a/data/trans_dic/P25A_12_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_12_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por trastornos de ansiedad</t>
+          <t>Población con limitación por trastornos de ansiedad (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>75,86%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>68,84%</t>
+          <t>12,29%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,13</t>
+          <t>0,66; 5,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 11,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,36</t>
+          <t>0,78; 10,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,73</t>
+          <t>0,0; 5,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 9,06</t>
+          <t>0,84; 8,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 11,41</t>
+          <t>2,07; 12,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 10,0</t>
+          <t>1,82; 8,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,57; 90,59</t>
+          <t>3,67; 11,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,49</t>
+          <t>2,95; 10,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,6</t>
+          <t>10,27; 25,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,05</t>
+          <t>6,9; 19,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>48,86; 85,35</t>
+          <t>7,03; 19,63</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 6,01</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,52; 8,79</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 8,52</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 13,46</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 11,17</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 14,01</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>45,56%</t>
+          <t>10,3%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>6,98%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 6,53</t>
+          <t>0,75; 6,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,99</t>
+          <t>0,82; 4,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,07</t>
+          <t>0,96; 5,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,14; 70,61</t>
+          <t>0,88; 8,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 12,33</t>
+          <t>3,16; 12,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,12</t>
+          <t>1,66; 8,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,28</t>
+          <t>3,06; 12,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,16; 69,52</t>
+          <t>3,28; 9,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,72</t>
+          <t>2,58; 8,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,06</t>
+          <t>4,16; 11,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,57</t>
+          <t>8,7; 19,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,17; 61,6</t>
+          <t>6,62; 15,51</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 7,91</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 5,88</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 5,54</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 8,74</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 13,54</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,42; 10,03</t>
         </is>
       </c>
     </row>
@@ -936,12 +1105,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -951,47 +1120,77 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>57,12%</t>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,41</t>
+          <t>1,26; 5,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 6,35</t>
+          <t>1,92; 6,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,8</t>
+          <t>0,27; 2,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,69; 93,1</t>
+          <t>3,01; 9,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 13,88</t>
+          <t>2,76; 9,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 11,38</t>
+          <t>1,2; 6,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 9,31</t>
+          <t>3,3; 9,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,12; 62,16</t>
+          <t>5,8; 11,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,75</t>
+          <t>4,54; 9,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,98</t>
+          <t>5,91; 13,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,31</t>
+          <t>9,7; 19,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>43,74; 68,97</t>
+          <t>6,11; 12,73</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 6,44</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 8,05</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 5,62</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,97; 9,58</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7,37; 12,85</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 8,25</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>55,09%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>51,15%</t>
+          <t>13,1%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>12,75%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>10,28%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,39</t>
+          <t>1,87; 6,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,84</t>
+          <t>1,85; 5,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 8,48</t>
+          <t>3,6; 8,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,49; 65,38</t>
+          <t>1,93; 8,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 12,96</t>
+          <t>6,02; 14,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,45; 11,18</t>
+          <t>4,73; 11,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 13,12</t>
+          <t>6,83; 13,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>41,65; 68,49</t>
+          <t>5,78; 11,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,77</t>
+          <t>7,07; 12,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,84</t>
+          <t>8,48; 17,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,72</t>
+          <t>12,12; 21,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>40,09; 62,59</t>
+          <t>9,69; 17,37</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 8,77</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 7,71</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,16; 9,98</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 10,75</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9,96; 16,13</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 13,08</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>64,84%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>60,91%</t>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>14,96%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>11,7%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 7,62</t>
+          <t>1,84; 7,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,78</t>
+          <t>2,81; 8,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,21</t>
+          <t>2,46; 7,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46,37; 82,37</t>
+          <t>6,4; 16,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,67</t>
+          <t>8,86; 18,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,14</t>
+          <t>4,05; 11,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,04</t>
+          <t>4,16; 11,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,16; 71,53</t>
+          <t>5,9; 13,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,11</t>
+          <t>7,07; 14,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,24</t>
+          <t>13,5; 23,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,61</t>
+          <t>11,89; 22,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,72; 70,17</t>
+          <t>10,67; 21,36</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 8,26</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 9,92</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 10,07</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>11,24; 18,47</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>11,74; 18,59</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 15,39</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>10,33%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 14,59</t>
+          <t>1,56; 15,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,96; 15,31</t>
+          <t>4,06; 15,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 10,92</t>
+          <t>1,92; 10,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,88; 84,38</t>
+          <t>0,55; 5,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,22; 13,44</t>
+          <t>1,7; 8,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,41; 11,5</t>
+          <t>2,09; 10,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,18; 10,96</t>
+          <t>4,17; 14,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,16; 61,12</t>
+          <t>4,25; 11,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,61; 10,73</t>
+          <t>4,0; 15,3</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 11,5</t>
+          <t>5,01; 15,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,04</t>
+          <t>9,63; 21,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,99; 59,08</t>
+          <t>4,0; 12,97</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>3,72; 11,03</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 10,57</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 11,11</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 9,74</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>7,34; 15,08</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 9,98</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>53,75%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>54,41%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>5,31%</t>
         </is>
       </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>5,75%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>54,22%</t>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,93</t>
+          <t>2,53; 5,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,22</t>
+          <t>3,1; 5,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,61</t>
+          <t>2,71; 4,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>41,48; 64,32</t>
+          <t>3,52; 6,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,95</t>
+          <t>5,66; 9,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 8,95</t>
+          <t>4,1; 6,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 8,64</t>
+          <t>5,76; 8,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>47,93; 61,71</t>
+          <t>6,34; 9,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,41</t>
+          <t>6,27; 9,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,75</t>
+          <t>10,14; 14,19</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,59; 6,32</t>
+          <t>12,51; 16,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>48,56; 59,81</t>
+          <t>9,62; 13,23</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 6,44</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 6,98</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 6,68</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 9,51</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>9,54; 12,18</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>7,16; 9,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por trastornos de ansiedad (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10719</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14767</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18202</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1271</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25482</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20304</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35292</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30654</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6246</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>58673</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>31023</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>50060</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>48856</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6979</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5871</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>84156</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3315; 29483</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 58456</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3979; 52437</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2371</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>368; 3549</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9750; 56807</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8516; 38604</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18777; 60003</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15149; 52747</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3745; 9366</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2639; 7395</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33560; 93663</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15685; 58368</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>26164; 91139</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>26294; 87280</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4429; 10572</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3659; 9199</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>52381; 132827</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17103</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13435</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16139</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1747</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3364</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23530</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34722</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29604</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25212</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3492</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6037</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>52016</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>51825</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>43039</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>41351</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5239</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>9401</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>75546</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4326; 38736</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4616; 28000</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5698; 32748</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>441; 4165</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1550; 6241</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9574; 47228</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15813; 63208</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16643; 48120</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>13330; 42762</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1953; 5564</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4003; 8810</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>33437; 78327</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>30579; 86211</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>25586; 62936</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>23244; 61642</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3142; 8463</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6315; 12866</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>47802; 108572</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20948</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24823</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3547</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19666</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41356</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>59876</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>48271</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4749</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7677</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>64097</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>62304</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>84700</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>54378</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>8058</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>11224</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>83762</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8623; 39073</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13089; 42687</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1849; 17799</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1809; 5582</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1677; 5757</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8144; 41306</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23545; 64411</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41690; 82762</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32199; 68744</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3187; 7190</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5323; 10525</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43537; 90768</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>40864; 89946</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>61542; 112613</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>36041; 78155</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>5676; 10929</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>8517; 14860</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>59041; 114778</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23788</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22179</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>37336</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2374</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5219</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>48796</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>65110</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>55148</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>65194</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6494</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8697</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>86456</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>88899</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>77328</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>102529</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>8868</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>13916</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>135252</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12079; 40155</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11908; 38145</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23004; 57337</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1120; 4650</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3374; 7943</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>31047; 75033</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>46421; 92000</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>38796; 78657</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>46642; 84116</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4444; 8963</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6434; 11515</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>63924; 114594</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>63494; 116296</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>55576; 101422</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>80006; 129586</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>6225; 11873</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>10870; 17600</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>106290; 172105</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>21018</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>25249</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22347</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4756</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5927</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>35098</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>36177</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>46582</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>53565</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9115</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7833</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>83025</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>57196</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>71831</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>75913</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>13871</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>13760</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>118123</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9070; 37520</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14146; 42299</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12141; 36832</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2845; 7120</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3995; 8400</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19943; 54266</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20980; 56702</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29446; 66929</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>36146; 75121</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6583; 11636</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5568; 10525</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>55148; 110394</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>37440; 82349</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>52002; 99518</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>55961; 101139</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>10481; 17223</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>10798; 17100</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>89127; 155320</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>26500</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>41353</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>25792</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>29047</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>55560</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>49113</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>50818</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5789</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9265</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>55925</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>82060</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>90466</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>76611</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>6843</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>11290</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>84972</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8525; 84491</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>21486; 80997</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>10243; 56865</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>260; 2378</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>774; 3945</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11854; 58727</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>29449; 102548</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>29253; 78411</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>27577; 105537</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3170; 10052</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>6131; 13427</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>28823; 93477</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>46528; 138032</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>60256; 128831</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>46834; 135762</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>3909; 10730</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>8022; 16477</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>53842; 128475</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>120077</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>141807</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>125925</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>13973</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>21354</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>181619</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>253230</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>275616</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>273714</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>35886</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>44109</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>400192</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>373307</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>417423</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>399638</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>49859</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>65463</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>581811</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>87307; 179313</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>106732; 192277</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>93418; 170150</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>10615; 18648</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>17006; 27452</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>141154; 239817</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>206495; 312832</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>228279; 326116</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>225916; 329921</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>30599; 42821</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>37879; 50902</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>345422; 475394</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>312445; 453063</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>356937; 491289</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>342066; 470871</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>42959; 57366</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>57580; 73469</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>503866; 667471</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
